--- a/English_01.xlsx
+++ b/English_01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2014.10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.jQ大致轮廓及架构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,6 +266,58 @@
   </si>
   <si>
     <t>是否完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.10.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.requirejs优缺点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.less研究</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.英语学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30-21：30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.tb摸索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-22:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.英语学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:40-23:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.10.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.bower的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.less研究</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -441,12 +489,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -454,6 +496,15 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -822,14 +873,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1029,14 +1080,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1220,14 +1271,14 @@
       <c r="J19" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1409,7 +1460,7 @@
   <dimension ref="A3:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1424,51 +1475,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1549,275 +1600,360 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>52</v>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
+      <c r="C31" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="10">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="8" t="s">
+      <c r="C32" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10">
-        <v>0.6875</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="C33" s="8">
         <v>0.75</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:F44"/>
@@ -1828,24 +1964,25 @@
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/English_01.xlsx
+++ b/English_01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -318,6 +318,46 @@
   </si>
   <si>
     <t>2.less研究</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结:需要专注,打40分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.jQ整体架构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.HTTP服务器与客户端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.tb 整理总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:40-22：00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.tb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:30-22:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:50-23:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.10.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -494,16 +534,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -858,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -873,14 +927,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1080,14 +1134,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1271,14 +1325,14 @@
       <c r="J19" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1460,7 +1514,7 @@
   <dimension ref="A3:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1475,51 +1529,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="J4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="J5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1600,14 +1654,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D16" s="7" t="s">
@@ -1617,23 +1671,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="13">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="8" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1645,9 +1699,9 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" t="s">
         <v>46</v>
       </c>
@@ -1660,11 +1714,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="8" t="s">
         <v>48</v>
       </c>
@@ -1677,9 +1731,9 @@
         <v>0.6875</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -1689,288 +1743,326 @@
         <v>0.75</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="8" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="8">
         <v>0.5</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="8">
         <v>0.75</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="13">
         <v>0.4375</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="8" t="s">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="8">
         <v>0.5</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
       <c r="H30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="10" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="8">
         <v>0.75</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.4375</v>
+      </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="E35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
+  <mergeCells count="32">
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="A3:G3"/>
@@ -1982,7 +2074,18 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
